--- a/Dataset Alkohol.xlsx
+++ b/Dataset Alkohol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEMESTER 5\SPK_ALKOHOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376B3F9A-4C53-4548-BC75-40008E143117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DC8152-80EF-4B35-A047-F6F4282464FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C889DFC9-3F50-4849-93A3-E08C3DE8A6FC}"/>
+    <workbookView xWindow="7215" yWindow="16200" windowWidth="21690" windowHeight="8355" xr2:uid="{C889DFC9-3F50-4849-93A3-E08C3DE8A6FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
   <si>
     <t>product_id</t>
   </si>
@@ -68,27 +68,12 @@
     <t>packaging</t>
   </si>
   <si>
-    <t>is_halal</t>
-  </si>
-  <si>
-    <t>Lager Beer A</t>
-  </si>
-  <si>
     <t>Beer</t>
   </si>
   <si>
-    <t>Air, malt barley, hops, yeast</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Bottle</t>
   </si>
   <si>
-    <t>Lager Beer B</t>
-  </si>
-  <si>
     <t>Air, barley malt, hops</t>
   </si>
   <si>
@@ -270,12 +255,33 @@
   </si>
   <si>
     <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Baileys</t>
+  </si>
+  <si>
+    <t>Aperol</t>
+  </si>
+  <si>
+    <t>Liquer</t>
+  </si>
+  <si>
+    <t>Krim susu, whiskey Irlandia, kakao</t>
+  </si>
+  <si>
+    <t>Jeruk pahit, herbal, rhubarb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,12 +334,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C486B-4A6D-4DF0-BDFF-0A67579A6428}">
-  <dimension ref="D3:N23"/>
+  <dimension ref="D3:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,13 +692,14 @@
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,89 +730,80 @@
       <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2">
-        <v>4.8</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2">
-        <v>330</v>
+        <v>700</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>35000</v>
+        <v>20</v>
+      </c>
+      <c r="K4" s="3">
+        <v>450000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2">
+        <v>750</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>500</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2">
-        <v>48000</v>
+      <c r="K5" s="3">
+        <v>350000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2">
         <v>13.5</v>
@@ -811,33 +812,30 @@
         <v>750</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2">
         <v>2.6</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>275000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D7" s="2">
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
         <v>12</v>
@@ -846,33 +844,30 @@
         <v>750</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2">
         <v>1.8</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>250000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2">
         <v>40</v>
@@ -881,33 +876,30 @@
         <v>700</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>520000</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2">
         <v>40</v>
@@ -916,33 +908,30 @@
         <v>750</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>410000</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D10" s="2">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2">
         <v>37.5</v>
@@ -951,33 +940,30 @@
         <v>700</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2">
         <v>0.5</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>390000</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2">
         <v>38</v>
@@ -986,33 +972,30 @@
         <v>700</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>450000</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2">
         <v>4.5</v>
@@ -1021,33 +1004,30 @@
         <v>330</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2">
         <v>6.8</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>42000</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D13" s="2">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2">
         <v>15</v>
@@ -1056,33 +1036,30 @@
         <v>720</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2">
         <v>3</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>300000</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D14" s="2">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2">
         <v>5.5</v>
@@ -1091,33 +1068,30 @@
         <v>275</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J14" s="2">
         <v>12.5</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <v>55000</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2">
         <v>7</v>
@@ -1126,33 +1100,30 @@
         <v>330</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J15" s="2">
         <v>14.2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="3">
         <v>60000</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D16" s="2">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2">
         <v>11.5</v>
@@ -1161,33 +1132,30 @@
         <v>750</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J16" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <v>280000</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D17" s="2">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <v>6.5</v>
@@ -1196,33 +1164,30 @@
         <v>330</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J17" s="2">
         <v>3.8</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="3">
         <v>65000</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <v>7.2</v>
@@ -1231,33 +1196,30 @@
         <v>330</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J18" s="2">
         <v>2.9</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <v>70000</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" s="2">
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2">
         <v>38</v>
@@ -1266,33 +1228,30 @@
         <v>700</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="3">
         <v>480000</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" s="2">
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
@@ -1301,33 +1260,30 @@
         <v>500</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2">
         <v>18</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="3">
         <v>220000</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" s="2">
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2">
         <v>14</v>
@@ -1336,33 +1292,30 @@
         <v>750</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J21" s="2">
         <v>4</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="3">
         <v>190000</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" s="2">
         <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
@@ -1371,33 +1324,30 @@
         <v>500</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J22" s="2">
         <v>7.5</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="3">
         <v>45000</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" s="2">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2">
         <v>2.5</v>
@@ -1406,22 +1356,19 @@
         <v>330</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="3">
         <v>30000</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="2" t="b">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset Alkohol.xlsx
+++ b/Dataset Alkohol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEMESTER 5\SPK_ALKOHOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DC8152-80EF-4B35-A047-F6F4282464FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C599F-0FE1-40B1-8684-52F2ACD612A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="16200" windowWidth="21690" windowHeight="8355" xr2:uid="{C889DFC9-3F50-4849-93A3-E08C3DE8A6FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C889DFC9-3F50-4849-93A3-E08C3DE8A6FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>product_id</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Red Wine A</t>
-  </si>
-  <si>
     <t>Wine</t>
   </si>
   <si>
@@ -92,18 +89,12 @@
     <t>France</t>
   </si>
   <si>
-    <t>White Wine A</t>
-  </si>
-  <si>
     <t>Anggur putih fermentasi</t>
   </si>
   <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Whiskey A</t>
-  </si>
-  <si>
     <t>Spirit</t>
   </si>
   <si>
@@ -113,36 +104,24 @@
     <t>Scotland</t>
   </si>
   <si>
-    <t>Vodka A</t>
-  </si>
-  <si>
     <t>Gandum, air</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Rum A</t>
-  </si>
-  <si>
     <t>Tebu, air, yeast</t>
   </si>
   <si>
     <t>Cuba</t>
   </si>
   <si>
-    <t>Gin A</t>
-  </si>
-  <si>
     <t>Juniper berry, gandum, botanicals</t>
   </si>
   <si>
     <t>UK</t>
   </si>
   <si>
-    <t>Cider A</t>
-  </si>
-  <si>
     <t>Cider</t>
   </si>
   <si>
@@ -152,9 +131,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Sake A</t>
-  </si>
-  <si>
     <t>Sake</t>
   </si>
   <si>
@@ -164,9 +140,6 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>Cocktail RTD A</t>
-  </si>
-  <si>
     <t>RTD</t>
   </si>
   <si>
@@ -179,48 +152,30 @@
     <t>Can</t>
   </si>
   <si>
-    <t>Cocktail RTD B</t>
-  </si>
-  <si>
     <t>Rum, cola, gula</t>
   </si>
   <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Sparkling Wine A</t>
-  </si>
-  <si>
     <t>Anggur, ragi</t>
   </si>
   <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>Craft Beer IPA A</t>
-  </si>
-  <si>
-    <t>Craft Beer Stout A</t>
-  </si>
-  <si>
     <t>Malt panggang, barley, hops</t>
   </si>
   <si>
     <t>Ireland</t>
   </si>
   <si>
-    <t>Tequila A</t>
-  </si>
-  <si>
     <t>Agave biru, air</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Mead A</t>
-  </si>
-  <si>
     <t>Mead</t>
   </si>
   <si>
@@ -230,27 +185,18 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>Rice Wine A</t>
-  </si>
-  <si>
     <t>Beras fermentasi</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>Palm Wine A</t>
-  </si>
-  <si>
     <t>Traditional</t>
   </si>
   <si>
     <t>Nira fermentasi</t>
   </si>
   <si>
-    <t>Low Alcohol Beer A</t>
-  </si>
-  <si>
     <t>Air, malt, hops</t>
   </si>
   <si>
@@ -273,6 +219,57 @@
   </si>
   <si>
     <t xml:space="preserve">Ireland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Wine </t>
+  </si>
+  <si>
+    <t>White Wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vodka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cider </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocktail RTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparkling Wine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craft Beer IPA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craft Beer Stout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tequila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mead </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice Wine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palm Wine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Alcohol Beer </t>
   </si>
 </sst>
 </file>
@@ -280,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -342,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,7 +679,7 @@
   <dimension ref="D3:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>17</v>
@@ -748,7 +745,7 @@
         <v>700</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2">
         <v>20</v>
@@ -757,7 +754,7 @@
         <v>450000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>11</v>
@@ -768,10 +765,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>11</v>
@@ -780,7 +777,7 @@
         <v>750</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2">
         <v>16</v>
@@ -789,7 +786,7 @@
         <v>350000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>11</v>
@@ -800,10 +797,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G6" s="2">
         <v>13.5</v>
@@ -812,7 +809,7 @@
         <v>750</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2">
         <v>2.6</v>
@@ -821,7 +818,7 @@
         <v>275000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>11</v>
@@ -832,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2">
         <v>12</v>
@@ -844,7 +841,7 @@
         <v>750</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2">
         <v>1.8</v>
@@ -853,7 +850,7 @@
         <v>250000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>11</v>
@@ -864,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
         <v>40</v>
@@ -876,7 +873,7 @@
         <v>700</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -885,7 +882,7 @@
         <v>520000</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>11</v>
@@ -896,10 +893,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2">
         <v>40</v>
@@ -908,7 +905,7 @@
         <v>750</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -917,7 +914,7 @@
         <v>410000</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>11</v>
@@ -928,10 +925,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2">
         <v>37.5</v>
@@ -940,7 +937,7 @@
         <v>700</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2">
         <v>0.5</v>
@@ -949,7 +946,7 @@
         <v>390000</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>11</v>
@@ -960,10 +957,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2">
         <v>38</v>
@@ -972,7 +969,7 @@
         <v>700</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -981,7 +978,7 @@
         <v>450000</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>11</v>
@@ -992,10 +989,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G12" s="2">
         <v>4.5</v>
@@ -1004,7 +1001,7 @@
         <v>330</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2">
         <v>6.8</v>
@@ -1013,7 +1010,7 @@
         <v>42000</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>11</v>
@@ -1024,10 +1021,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2">
         <v>15</v>
@@ -1036,7 +1033,7 @@
         <v>720</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J13" s="2">
         <v>3</v>
@@ -1045,7 +1042,7 @@
         <v>300000</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>11</v>
@@ -1056,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>5.5</v>
@@ -1068,7 +1065,7 @@
         <v>275</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J14" s="2">
         <v>12.5</v>
@@ -1077,10 +1074,10 @@
         <v>55000</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.3">
@@ -1088,10 +1085,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2">
         <v>7</v>
@@ -1100,7 +1097,7 @@
         <v>330</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J15" s="2">
         <v>14.2</v>
@@ -1109,10 +1106,10 @@
         <v>60000</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.3">
@@ -1120,10 +1117,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2">
         <v>11.5</v>
@@ -1132,7 +1129,7 @@
         <v>750</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2">
         <v>2.2000000000000002</v>
@@ -1141,7 +1138,7 @@
         <v>280000</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>11</v>
@@ -1152,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -1184,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1196,7 +1193,7 @@
         <v>330</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J18" s="2">
         <v>2.9</v>
@@ -1205,7 +1202,7 @@
         <v>70000</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>11</v>
@@ -1216,10 +1213,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2">
         <v>38</v>
@@ -1228,7 +1225,7 @@
         <v>700</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1237,7 +1234,7 @@
         <v>480000</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>11</v>
@@ -1248,10 +1245,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
@@ -1260,7 +1257,7 @@
         <v>500</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="J20" s="2">
         <v>18</v>
@@ -1269,7 +1266,7 @@
         <v>220000</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>11</v>
@@ -1280,10 +1277,10 @@
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2">
         <v>14</v>
@@ -1292,7 +1289,7 @@
         <v>750</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J21" s="2">
         <v>4</v>
@@ -1301,7 +1298,7 @@
         <v>190000</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>11</v>
@@ -1312,10 +1309,10 @@
         <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
@@ -1324,7 +1321,7 @@
         <v>500</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J22" s="2">
         <v>7.5</v>
@@ -1344,7 +1341,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1356,7 +1353,7 @@
         <v>330</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
@@ -1365,10 +1362,10 @@
         <v>30000</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset Alkohol.xlsx
+++ b/Dataset Alkohol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEMESTER 5\SPK_ALKOHOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C599F-0FE1-40B1-8684-52F2ACD612A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B058FAFC-1476-425D-B01E-8747FFA830C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C889DFC9-3F50-4849-93A3-E08C3DE8A6FC}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t xml:space="preserve">Ireland </t>
   </si>
   <si>
-    <t xml:space="preserve">Red Wine </t>
-  </si>
-  <si>
     <t>White Wine</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t xml:space="preserve">Low Alcohol Beer </t>
+  </si>
+  <si>
+    <t>Wine Merah</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
   <dimension ref="D3:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -925,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -957,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -989,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>28</v>
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>31</v>
@@ -1053,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>34</v>
@@ -1085,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>34</v>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
@@ -1149,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>19</v>
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>46</v>
@@ -1277,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
@@ -1309,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>51</v>
@@ -1341,7 +1341,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
